--- a/medicine/Psychotrope/Enrico_Bernardo/Enrico_Bernardo.xlsx
+++ b/medicine/Psychotrope/Enrico_Bernardo/Enrico_Bernardo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enrico Bernardo (né en 1976 à Limbiate, dans la province de Monza et de la Brianza, en Lombardie) est un sommelier italien élu « meilleur sommelier du monde 2004 ».
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Enrico Bernardo entre à l'École hôtelière Carlo Porta de Milan (institution italienne) où il obtient son CAP puis un bac hôtelier. En 1993 âgé de 16 ans, il devient « meilleur jeune cuisinier d’Europe » en Sicile puis devient sommelier professionnel en 1995. Son professeur Giuseppe Vaccarini (meilleur sommelier du monde en 1978) lui transmet sa passion.
 Il poursuit sa formation en sommellerie à Milan et réalise son stage à « La Poularde » à Montrond-les-Bains, dont le directeur est Éric Beaumard (vice-meilleur sommelier du monde en 1998).
@@ -549,7 +563,9 @@
           <t>Établissements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Restaurant gastronomique « Il Vino » au 13 Boulevard de la Tour-Maubourg dans le 7e arrondissement de Paris.
 Restaurant « Il Vino » à Courchevel.
@@ -582,7 +598,9 @@
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1993 - Meilleur jeune cuisinier d’Europe
 1995 - Prix Master of Port d'Italie
@@ -617,7 +635,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2005 : Savoir goûter le vin - Édition Plon.
 2007 : Mes vins de Méditerranée, Édition Plon.
